--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Year 3\Semester 2\Agile\AgileGroup4\Product Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -28,82 +36,79 @@
     <t xml:space="preserve"> Website - Developer</t>
   </si>
   <si>
-    <t>As a client, I want a host for the web app</t>
-  </si>
-  <si>
-    <t>As a client, I want my web app to meet WCAG accessibility standards</t>
-  </si>
-  <si>
-    <t>As a client, I want a website to act as a front end for my web app</t>
-  </si>
-  <si>
     <t>Website - User</t>
   </si>
   <si>
     <t>As a user, I can search for institutions which provide a procedure</t>
   </si>
   <si>
-    <t>As a user, I can view search results on a map</t>
-  </si>
-  <si>
-    <t>As a user, I can sort results by price</t>
-  </si>
-  <si>
-    <t>As a user, I can sort results by distance from current location</t>
-  </si>
-  <si>
-    <t>As a user, I  can sort results by distance from a selected location</t>
-  </si>
-  <si>
-    <t>As a user, I can restrict a search by entering a price range</t>
-  </si>
-  <si>
-    <t>As a user, I can sort results using a custom ranking algorithm</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
-    <t>As a client, I want a database to store our dataset</t>
-  </si>
-  <si>
-    <t>As a client, I want to be able to update the database</t>
-  </si>
-  <si>
     <t>Website - Admin</t>
   </si>
   <si>
-    <t>As an administrator, I can log in to the website</t>
-  </si>
-  <si>
-    <t>As an administrator, I can access the database from the website</t>
+    <t>As a developer I want to be able to update the database</t>
+  </si>
+  <si>
+    <t>As a developer, I want my web app to meet WCAG accessibility standards</t>
+  </si>
+  <si>
+    <t>As a developer, I want a host for the web app</t>
+  </si>
+  <si>
+    <t>As an administrator, I want to log in to the website because I want only specific people to have access to admin part of the website</t>
+  </si>
+  <si>
+    <t>As an administrator, I want to access the database from the website because I don’t want to update the databse by installing an app</t>
+  </si>
+  <si>
+    <t>As a developer, I want a website to act as a front end for my web app because its easily accessable</t>
+  </si>
+  <si>
+    <t>As a user, I can view search results on a map because I want a more visual representation of search results</t>
+  </si>
+  <si>
+    <t>Return on investment</t>
+  </si>
+  <si>
+    <t>As a user, I can sort results by price beceause I want to see cheapest opions</t>
+  </si>
+  <si>
+    <t>As a user, I can sort results by distance from a selected location</t>
+  </si>
+  <si>
+    <t>As a user, I can restrict a search by entering max price because I want to see results which are afforable to me</t>
+  </si>
+  <si>
+    <t>As a developer I want a database to store our dataset because its easier to manage</t>
+  </si>
+  <si>
+    <t>As a user, I can sort results using a custom ranking algorithm baased on a combination of price and distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,46 +116,49 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -340,25 +348,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.43"/>
-    <col customWidth="1" min="2" max="2" width="80.86"/>
-    <col customWidth="1" min="3" max="3" width="12.86"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="89.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,188 +385,229 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2</f>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" si="0">C3/D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>9.0</v>
-      </c>
       <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>C13/D13</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="2">
-        <v>52.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -51,9 +51,6 @@
     <t>As a developer I want to be able to update the database</t>
   </si>
   <si>
-    <t>As a developer, I want my web app to meet WCAG accessibility standards</t>
-  </si>
-  <si>
     <t>As a developer, I want a host for the web app</t>
   </si>
   <si>
@@ -85,13 +82,16 @@
   </si>
   <si>
     <t>As a user, I can sort results using a custom ranking algorithm baased on a combination of price and distance</t>
+  </si>
+  <si>
+    <t>As a user, I want a more user friendly website</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -102,8 +102,14 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +120,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,17 +141,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,8 +378,8 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -386,54 +404,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
         <v>13</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <f>C2/D2</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E14" si="0">C3/D3</f>
-        <v>1</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
@@ -442,16 +460,16 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -459,7 +477,7 @@
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -474,24 +492,24 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -506,24 +524,24 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -540,32 +558,32 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -574,8 +592,8 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -590,8 +608,8 @@
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -609,5 +627,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -39,52 +39,52 @@
     <t>Website - User</t>
   </si>
   <si>
-    <t>As a user, I can search for institutions which provide a procedure</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
     <t>Website - Admin</t>
   </si>
   <si>
-    <t>As a developer I want to be able to update the database</t>
-  </si>
-  <si>
     <t>As a developer, I want a host for the web app</t>
   </si>
   <si>
     <t>As an administrator, I want to log in to the website because I want only specific people to have access to admin part of the website</t>
   </si>
   <si>
-    <t>As an administrator, I want to access the database from the website because I don’t want to update the databse by installing an app</t>
-  </si>
-  <si>
-    <t>As a developer, I want a website to act as a front end for my web app because its easily accessable</t>
-  </si>
-  <si>
     <t>As a user, I can view search results on a map because I want a more visual representation of search results</t>
   </si>
   <si>
     <t>Return on investment</t>
   </si>
   <si>
-    <t>As a user, I can sort results by price beceause I want to see cheapest opions</t>
-  </si>
-  <si>
     <t>As a user, I can sort results by distance from a selected location</t>
   </si>
   <si>
     <t>As a user, I can restrict a search by entering max price because I want to see results which are afforable to me</t>
   </si>
   <si>
-    <t>As a developer I want a database to store our dataset because its easier to manage</t>
-  </si>
-  <si>
-    <t>As a user, I can sort results using a custom ranking algorithm baased on a combination of price and distance</t>
-  </si>
-  <si>
-    <t>As a user, I want a more user friendly website</t>
+    <t>As a user, I can sort results by price beceause I want to see cheapest options</t>
+  </si>
+  <si>
+    <t>As a developer, I want a website to act as a front end for my web app because its easily accessable for users</t>
+  </si>
+  <si>
+    <t>As a developer, I want a database to store our dataset because its easier to manage</t>
+  </si>
+  <si>
+    <t>As a administrator, I want to be able to update the database by uploading a file because I don’t want the updating to be manual and tiem consuming</t>
+  </si>
+  <si>
+    <t>As an administrator, I want to access the database from the website because I don’t want to update the databse by using an application</t>
+  </si>
+  <si>
+    <t>As a user, I can sort results using a custom ranking algorithm which is based on a combination of price and distance because I want best results available</t>
+  </si>
+  <si>
+    <t>As a user, I want a more user friendly website because I don’t want to waste time learning how to use the webapp</t>
+  </si>
+  <si>
+    <t>As a user, I can search for institutions which provide a procedure because I want to see which insitutions provide the procedure</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -157,7 +157,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +390,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -404,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -412,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
@@ -425,10 +436,10 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
@@ -441,9 +452,9 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
@@ -456,12 +467,12 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
@@ -477,7 +488,7 @@
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -493,7 +504,7 @@
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
         <v>7</v>
@@ -509,7 +520,7 @@
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -525,7 +536,7 @@
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
@@ -538,28 +549,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="11">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -572,10 +583,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="4">
         <v>5</v>
@@ -590,34 +601,34 @@
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <f>C13/D13</f>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/Product Backlog/Product Backlog.xlsx
+++ b/Product Backlog/Product Backlog.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Year 3\Semester 2\Agile\AgileGroup4\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smith\Documents\AgileGroup4\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BC5C6A-D838-4707-8E84-F4D78B16E4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -109,7 +120,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +139,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -151,23 +174,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,25 +414,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="89.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,172 +449,172 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>13</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <f>C2/D2</f>
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E14" si="0">C3/D3</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <v>13</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="13">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="16">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="16">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <v>5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -599,11 +630,11 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4">
@@ -617,23 +648,23 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="13">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
   </sheetData>
